--- a/data/trans_dic/P41C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P41C_R-Edad-trans_dic.xlsx
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.0407190873787048</v>
+        <v>0.04071908737870481</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.047473935727541</v>
+        <v>0.04747393572754101</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.04422424963131139</v>
+        <v>0.0442242496313114</v>
       </c>
     </row>
     <row r="8">
@@ -624,13 +624,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007795005941800429</v>
+        <v>0.008089731069924491</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02145519291009095</v>
+        <v>0.02173491753081807</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02297912943250036</v>
+        <v>0.02257452749019421</v>
       </c>
     </row>
     <row r="9">
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1194601868572299</v>
+        <v>0.1328031442225164</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08843215491640566</v>
+        <v>0.0922032331476652</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09113818752233008</v>
+        <v>0.08665924617234494</v>
       </c>
     </row>
     <row r="10">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.05038063666890832</v>
+        <v>0.0503806366689083</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.05235542993380505</v>
@@ -679,13 +679,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02618408607956928</v>
+        <v>0.02569706910591328</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03207471333730239</v>
+        <v>0.03322818015685573</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03316714901211052</v>
+        <v>0.03382337118612854</v>
       </c>
     </row>
     <row r="12">
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08852949100060188</v>
+        <v>0.08428062025792196</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0821230771134428</v>
+        <v>0.08243690520556368</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07136713217403162</v>
+        <v>0.07315273494977036</v>
       </c>
     </row>
     <row r="13">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.04886611633401811</v>
+        <v>0.0488661163340181</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.04129606237770188</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0447981095580727</v>
+        <v>0.04479810955807269</v>
       </c>
     </row>
     <row r="14">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02474196899670594</v>
+        <v>0.02372351638744543</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0261013250781413</v>
+        <v>0.02625409635659001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02969360452466943</v>
+        <v>0.03016143141213247</v>
       </c>
     </row>
     <row r="15">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0860907284460686</v>
+        <v>0.08772395854082861</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06367785845167093</v>
+        <v>0.06442964223856508</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.065451876290339</v>
+        <v>0.06534959849717289</v>
       </c>
     </row>
     <row r="16">
@@ -821,7 +821,7 @@
         <v>0.04106677845705861</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.04105537229113499</v>
+        <v>0.04105537229113498</v>
       </c>
     </row>
     <row r="20">
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02694629720718468</v>
+        <v>0.02689981491535185</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03056006324792021</v>
+        <v>0.02911533948360192</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03152006685623618</v>
+        <v>0.030677615404891</v>
       </c>
     </row>
     <row r="21">
@@ -849,13 +849,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0636327101693028</v>
+        <v>0.06365875518289867</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05565302965719671</v>
+        <v>0.05547621006030447</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05317494562323544</v>
+        <v>0.05329169933890091</v>
       </c>
     </row>
     <row r="22">
@@ -1058,13 +1058,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1177</v>
+        <v>1222</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3494</v>
+        <v>3540</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7212</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="11">
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18038</v>
+        <v>20053</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14403</v>
+        <v>15017</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>28605</v>
+        <v>27199</v>
       </c>
     </row>
     <row r="12">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5776</v>
+        <v>5669</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7934</v>
+        <v>8219</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15521</v>
+        <v>15828</v>
       </c>
     </row>
     <row r="15">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19529</v>
+        <v>18592</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20314</v>
+        <v>20392</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33397</v>
+        <v>34233</v>
       </c>
     </row>
     <row r="16">
@@ -1202,13 +1202,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5718</v>
+        <v>5483</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7007</v>
+        <v>7048</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14834</v>
+        <v>15068</v>
       </c>
     </row>
     <row r="19">
@@ -1219,13 +1219,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19896</v>
+        <v>20274</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17095</v>
+        <v>17297</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>32697</v>
+        <v>32646</v>
       </c>
     </row>
     <row r="20">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>18748</v>
+        <v>18716</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>23641</v>
+        <v>22524</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>46314</v>
+        <v>45076</v>
       </c>
     </row>
     <row r="27">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>43053</v>
+        <v>42916</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>78133</v>
+        <v>78304</v>
       </c>
     </row>
     <row r="28">
